--- a/Data_Base/AdBook/Pictures_and_Prints.xlsx
+++ b/Data_Base/AdBook/Pictures_and_Prints.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Торгово-промышленный отдел</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Васильевский Остров, 5 линия, 2</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longetude</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -385,43 +391,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,11 +460,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -505,37 +483,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -682,12 +682,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:C48" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A5:C48"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Owner" dataDxfId="2"/>
-    <tableColumn id="2" name="Address" dataDxfId="1"/>
-    <tableColumn id="3" name="Title" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:E48" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A5:E48"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Owner" dataDxfId="4"/>
+    <tableColumn id="2" name="Address" dataDxfId="3"/>
+    <tableColumn id="3" name="Title" dataDxfId="2"/>
+    <tableColumn id="4" name="Latitude" dataDxfId="1"/>
+    <tableColumn id="5" name="Longetude" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,37 +969,47 @@
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>3240</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1019,14 @@
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1036,14 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="17">
+        <v>59.936140999999999</v>
+      </c>
+      <c r="E6" s="17">
+        <v>30.314772300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1053,14 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="18">
+        <v>59.933101999999998</v>
+      </c>
+      <c r="E7" s="18">
+        <v>30.3091723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1038,8 +1068,14 @@
         <v>13</v>
       </c>
       <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="19">
+        <v>59.936819999999997</v>
+      </c>
+      <c r="E8" s="19">
+        <v>30.313542300000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1047,8 +1083,14 @@
         <v>15</v>
       </c>
       <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="20">
+        <v>59.921408100000001</v>
+      </c>
+      <c r="E9" s="20">
+        <v>30.316333700000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1056,8 +1098,14 @@
         <v>17</v>
       </c>
       <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="17">
+        <v>59.937352699999998</v>
+      </c>
+      <c r="E10" s="17">
+        <v>30.286447800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1065,8 +1113,14 @@
         <v>19</v>
       </c>
       <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="20">
+        <v>59.927690300000002</v>
+      </c>
+      <c r="E11" s="20">
+        <v>30.304145299999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1074,8 +1128,14 @@
         <v>21</v>
       </c>
       <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="17">
+        <v>59.921961199999998</v>
+      </c>
+      <c r="E12" s="17">
+        <v>30.3079812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1085,8 +1145,14 @@
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="18">
+        <v>59.936860000000003</v>
+      </c>
+      <c r="E13" s="18">
+        <v>30.3100293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1094,8 +1160,14 @@
         <v>26</v>
       </c>
       <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="19">
+        <v>59.933669000000002</v>
+      </c>
+      <c r="E14" s="19">
+        <v>30.3397513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -1103,8 +1175,14 @@
         <v>28</v>
       </c>
       <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="20">
+        <v>59.934846299999997</v>
+      </c>
+      <c r="E15" s="20">
+        <v>30.329442700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1112,8 +1190,14 @@
         <v>30</v>
       </c>
       <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="19">
+        <v>59.936428999999997</v>
+      </c>
+      <c r="E16" s="19">
+        <v>30.346336300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1121,8 +1205,14 @@
         <v>32</v>
       </c>
       <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="20">
+        <v>59.937842000000003</v>
+      </c>
+      <c r="E17" s="20">
+        <v>30.343976300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1130,8 +1220,14 @@
         <v>34</v>
       </c>
       <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="17">
+        <v>59.921790999999999</v>
+      </c>
+      <c r="E18" s="17">
+        <v>30.3060224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
@@ -1141,8 +1237,14 @@
       <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="18">
+        <v>59.934450599999998</v>
+      </c>
+      <c r="E19" s="18">
+        <v>30.333613100000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -1150,8 +1252,14 @@
         <v>39</v>
       </c>
       <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="17">
+        <v>59.920939699999998</v>
+      </c>
+      <c r="E20" s="17">
+        <v>30.306003199999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
@@ -1159,8 +1267,14 @@
         <v>40</v>
       </c>
       <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="20">
+        <v>60.040418500000001</v>
+      </c>
+      <c r="E21" s="20">
+        <v>30.313079099999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1168,8 +1282,14 @@
         <v>42</v>
       </c>
       <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="17">
+        <v>59.920941499999998</v>
+      </c>
+      <c r="E22" s="17">
+        <v>30.305762999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
@@ -1177,8 +1297,14 @@
         <v>44</v>
       </c>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="18">
+        <v>59.938775</v>
+      </c>
+      <c r="E23" s="18">
+        <v>30.2844108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -1186,8 +1312,14 @@
         <v>46</v>
       </c>
       <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="19">
+        <v>59.930095999999999</v>
+      </c>
+      <c r="E24" s="19">
+        <v>30.326439799999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -1195,8 +1327,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -1204,8 +1338,14 @@
         <v>48</v>
       </c>
       <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="19">
+        <v>59.844138999999998</v>
+      </c>
+      <c r="E26" s="19">
+        <v>30.270071300000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>49</v>
       </c>
@@ -1213,8 +1353,14 @@
         <v>39</v>
       </c>
       <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="17">
+        <v>59.920941499999998</v>
+      </c>
+      <c r="E27" s="17">
+        <v>30.305762999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
@@ -1222,8 +1368,14 @@
         <v>50</v>
       </c>
       <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="19">
+        <v>59.865269499999997</v>
+      </c>
+      <c r="E28" s="19">
+        <v>30.462316900000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
@@ -1231,8 +1383,14 @@
         <v>52</v>
       </c>
       <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="20">
+        <v>59.933231999999997</v>
+      </c>
+      <c r="E29" s="20">
+        <v>30.3434393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -1240,8 +1398,14 @@
         <v>54</v>
       </c>
       <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="19">
+        <v>59.937811000000004</v>
+      </c>
+      <c r="E30" s="19">
+        <v>30.367452799999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
@@ -1249,8 +1413,14 @@
         <v>55</v>
       </c>
       <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="20">
+        <v>59.942747300000001</v>
+      </c>
+      <c r="E31" s="20">
+        <v>30.341548700000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
@@ -1260,8 +1430,14 @@
       <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="17">
+        <v>59.933622</v>
+      </c>
+      <c r="E32" s="17">
+        <v>30.359820299999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -1269,8 +1445,14 @@
         <v>39</v>
       </c>
       <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="18">
+        <v>59.920871400000003</v>
+      </c>
+      <c r="E33" s="18">
+        <v>30.305760100000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
@@ -1278,8 +1460,14 @@
         <v>60</v>
       </c>
       <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="19">
+        <v>59.928656799999999</v>
+      </c>
+      <c r="E34" s="19">
+        <v>30.343878799999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>61</v>
       </c>
@@ -1287,8 +1475,14 @@
         <v>39</v>
       </c>
       <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="18">
+        <v>59.920871400000003</v>
+      </c>
+      <c r="E35" s="18">
+        <v>30.305760100000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
@@ -1296,8 +1490,14 @@
         <v>62</v>
       </c>
       <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="17">
+        <v>60.025109</v>
+      </c>
+      <c r="E36" s="17">
+        <v>30.292711099999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>63</v>
       </c>
@@ -1305,8 +1505,14 @@
         <v>64</v>
       </c>
       <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="18">
+        <v>59.922713999999999</v>
+      </c>
+      <c r="E37" s="18">
+        <v>30.306672299999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
@@ -1314,8 +1520,14 @@
         <v>39</v>
       </c>
       <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="17">
+        <v>59.920269500000003</v>
+      </c>
+      <c r="E38" s="17">
+        <v>30.305745099999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>65</v>
       </c>
@@ -1323,8 +1535,14 @@
         <v>66</v>
       </c>
       <c r="C39" s="16"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="20">
+        <v>59.936044199999998</v>
+      </c>
+      <c r="E39" s="20">
+        <v>30.3332871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
@@ -1332,8 +1550,14 @@
         <v>39</v>
       </c>
       <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="17">
+        <v>59.920058300000001</v>
+      </c>
+      <c r="E40" s="17">
+        <v>30.305744000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>67</v>
       </c>
@@ -1341,8 +1565,14 @@
         <v>68</v>
       </c>
       <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="20">
+        <v>60.026931099999999</v>
+      </c>
+      <c r="E41" s="20">
+        <v>30.326688799999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
@@ -1350,8 +1580,14 @@
         <v>70</v>
       </c>
       <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="19">
+        <v>59.934638900000003</v>
+      </c>
+      <c r="E42" s="19">
+        <v>30.312097300000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>71</v>
       </c>
@@ -1359,8 +1595,14 @@
         <v>72</v>
       </c>
       <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="18">
+        <v>59.920058300000001</v>
+      </c>
+      <c r="E43" s="18">
+        <v>30.305744000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -1368,8 +1610,14 @@
         <v>74</v>
       </c>
       <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="19">
+        <v>59.936084299999997</v>
+      </c>
+      <c r="E44" s="19">
+        <v>30.319755000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>75</v>
       </c>
@@ -1377,8 +1625,14 @@
         <v>76</v>
       </c>
       <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="20">
+        <v>59.933264999999999</v>
+      </c>
+      <c r="E45" s="20">
+        <v>30.309544299999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>77</v>
       </c>
@@ -1386,8 +1640,14 @@
         <v>78</v>
       </c>
       <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="19">
+        <v>59.864263000000001</v>
+      </c>
+      <c r="E46" s="19">
+        <v>30.307262300000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>79</v>
       </c>
@@ -1395,8 +1655,14 @@
         <v>80</v>
       </c>
       <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="18">
+        <v>59.931513600000002</v>
+      </c>
+      <c r="E47" s="18">
+        <v>30.329399800000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>81</v>
       </c>
@@ -1404,13 +1670,19 @@
         <v>82</v>
       </c>
       <c r="C48" s="14"/>
+      <c r="D48" s="17">
+        <v>59.937289999999997</v>
+      </c>
+      <c r="E48" s="17">
+        <v>30.2862364</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
